--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3468861.767107091</v>
+        <v>3466317.980361633</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.382814765182</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>135.6403760196355</v>
       </c>
       <c r="W2" t="n">
-        <v>219.7489977723437</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651795</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20.92495819608505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1905846264269</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>77.98131097348993</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.67090732428527</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>177.0886024575365</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.382814765182</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>107.1258713709636</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.2749934433789</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.4800459487521</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>103.2789529957486</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.17487821174142</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>37.54513972594803</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558713008</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>29.24923305751756</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1901,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534146</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042195</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741387</v>
+        <v>287.1138724187721</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467317</v>
+        <v>49.15993901467436</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935556</v>
+        <v>141.9970572935576</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959964</v>
+        <v>294.0714735959995</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795961</v>
+        <v>494.953000779601</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670306</v>
+        <v>703.6988094670369</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288922</v>
+        <v>887.4762960288997</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108064</v>
+        <v>1009.825128108073</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193355</v>
+        <v>899.1940867193454</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193355</v>
+        <v>684.7549646357995</v>
       </c>
       <c r="U2" t="n">
-        <v>645.5089760794262</v>
+        <v>431.0698539958903</v>
       </c>
       <c r="V2" t="n">
-        <v>645.5089760794262</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="W2" t="n">
-        <v>423.5402914608973</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.4970442233422</v>
+        <v>294.0593731679756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4580641235926</v>
+        <v>216.6599758725285</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0050348424656</v>
+        <v>42.20694659140148</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07062518121436</v>
+        <v>42.20694659140148</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371015</v>
+        <v>121.284369981524</v>
       </c>
       <c r="L3" t="n">
-        <v>287.3462342725902</v>
+        <v>267.8970260111312</v>
       </c>
       <c r="M3" t="n">
-        <v>477.793156759176</v>
+        <v>528.6460126286614</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767037</v>
+        <v>738.5421433767114</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748495</v>
+        <v>908.336301274858</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062217</v>
+        <v>1025.278016062227</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060718</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060718</v>
+        <v>886.5091315712169</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060718</v>
+        <v>886.5091315712169</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.531259060718</v>
+        <v>886.5091315712169</v>
       </c>
       <c r="V3" t="n">
-        <v>974.762258077395</v>
+        <v>886.5091315712169</v>
       </c>
       <c r="W3" t="n">
-        <v>720.5249013491934</v>
+        <v>632.2717748430152</v>
       </c>
       <c r="X3" t="n">
-        <v>512.6734011436606</v>
+        <v>424.4202746374824</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.6734011436606</v>
+        <v>216.6599758725285</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1872645935501</v>
+        <v>100.5361881350381</v>
       </c>
       <c r="C4" t="n">
-        <v>171.1872645935501</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481196</v>
+        <v>126.3277805481202</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504846</v>
+        <v>316.5471352504858</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030305</v>
+        <v>527.4958971570832</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670078</v>
+        <v>738.8633854210609</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836272</v>
+        <v>917.2498138836361</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097369</v>
+        <v>1047.079201097378</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060718</v>
+        <v>846.7351778287893</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060718</v>
+        <v>621.2639235784825</v>
       </c>
       <c r="U4" t="n">
-        <v>874.6538828409844</v>
+        <v>621.2639235784825</v>
       </c>
       <c r="V4" t="n">
-        <v>619.9693946350975</v>
+        <v>366.5794353725956</v>
       </c>
       <c r="W4" t="n">
-        <v>619.9693946350975</v>
+        <v>100.5361881350381</v>
       </c>
       <c r="X4" t="n">
-        <v>391.9798437370802</v>
+        <v>100.5361881350381</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.1872645935501</v>
+        <v>100.5361881350381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4845493424988</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4644,7 +4644,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
         <v>192.1295835699343</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>928.3116853330534</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>720.4601851275206</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.6998863625668</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4726,13 +4726,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>508.2673461108286</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8038243349424</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.01124519141231</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.46096678957</v>
+        <v>983.6388807631545</v>
       </c>
       <c r="C8" t="n">
-        <v>1251.46096678957</v>
+        <v>614.6763638227428</v>
       </c>
       <c r="D8" t="n">
-        <v>893.19526818282</v>
+        <v>614.6763638227428</v>
       </c>
       <c r="E8" t="n">
-        <v>507.4070155845757</v>
+        <v>228.8881112244986</v>
       </c>
       <c r="F8" t="n">
-        <v>96.42111079496817</v>
+        <v>221.9426104752951</v>
       </c>
       <c r="G8" t="n">
-        <v>84.75676455966111</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>84.75676455966111</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.46096678957</v>
+        <v>983.6388807631545</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1495.938330028516</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1272.959849223251</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>755.8519608290719</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>535.0593816855418</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5261,61 +5261,61 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,13 +6494,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,16 +7646,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877319</v>
+        <v>60.59164343877271</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079664</v>
+        <v>2.109135423079266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.88658582607371</v>
       </c>
       <c r="L3" t="n">
-        <v>45.53225073664004</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085178</v>
       </c>
       <c r="N3" t="n">
-        <v>51.3665210802817</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588891</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>162.2039267153323</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.0073097921343</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948072</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>37.12601365260409</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844822994</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694344.5735090578</v>
+        <v>694344.5735090579</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909283</v>
+        <v>679702.4124909311</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680950839</v>
+        <v>366.4703680925343</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642064</v>
+        <v>68912.53318642134</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774287722</v>
+        <v>85.2055977423324</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674034</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557681</v>
+        <v>63021.461645577</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-236376.7847794464</v>
+        <v>-236376.7847794488</v>
       </c>
       <c r="C6" t="n">
-        <v>443032.5986447655</v>
+        <v>443032.5986447678</v>
       </c>
       <c r="D6" t="n">
-        <v>132650.5436109747</v>
+        <v>132650.5436109749</v>
       </c>
       <c r="E6" t="n">
-        <v>125615.7130829843</v>
+        <v>125580.9751575481</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820949</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.15470753</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.1547075304</v>
+        <v>633066.416782095</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.1547075299</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="J6" t="n">
-        <v>564188.6215211096</v>
+        <v>564153.8835956734</v>
       </c>
       <c r="K6" t="n">
-        <v>633015.9491097874</v>
+        <v>632981.2111843519</v>
       </c>
       <c r="L6" t="n">
-        <v>537718.5085699606</v>
+        <v>537683.7706445247</v>
       </c>
       <c r="M6" t="n">
-        <v>500493.8609786034</v>
+        <v>500459.1230531677</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820947</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.1547075303</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.15470753</v>
+        <v>633066.4167820943</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960524</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.382814765182</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960524</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427797</v>
+        <v>0.2849904734258644</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.382814765182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363265945</v>
+        <v>0.3310652363241502</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265945</v>
+        <v>0.3310652363243776</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.382814765182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265945</v>
+        <v>0.3310652363241502</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.4525055708734</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>192.1118824504994</v>
       </c>
       <c r="W2" t="n">
-        <v>129.4919709450693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>136.7201222593159</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500677</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807549</v>
+        <v>43.94290942807534</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642715</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27515,7 +27515,7 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>154.8192761759353</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>88.57591377434257</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825665</v>
+        <v>15.1085330482564</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>109.1700560769908</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>23.14018357140901</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>144.569111789956</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.5569867385584</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>43.23911829484169</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27837,7 +27837,7 @@
         <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.2687497772054</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>32.53503446072908</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>157.1173206357894</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2.547755138598932e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28621,10 +28621,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.26943618524902</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964663</v>
+        <v>95.1251007964666</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029072</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933466</v>
+        <v>313.8647179933477</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.3769364876052</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.2568667460621</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061207</v>
+        <v>440.2674158061221</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.7320362316493</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231203</v>
+        <v>354.8176746231214</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973321</v>
+        <v>266.453296897333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753589</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827639</v>
+        <v>56.22626896827657</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333959</v>
+        <v>45.45372342333974</v>
       </c>
       <c r="J3" t="n">
-        <v>124.728491243587</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289715</v>
+        <v>286.6479717289724</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.5046626963485</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682311</v>
+        <v>343.3580057682322</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466118</v>
+        <v>314.1054948466128</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.0973516439956</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5204033774369</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621598</v>
+        <v>81.96724952621624</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564879</v>
+        <v>24.52184951564887</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311983</v>
+        <v>5.321270296311999</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962983</v>
+        <v>0.08685424857963009</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057996</v>
+        <v>9.840443980058026</v>
       </c>
       <c r="I4" t="n">
-        <v>33.284446509235</v>
+        <v>33.28444650923511</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841613</v>
+        <v>78.25064706841637</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770362</v>
+        <v>92.6792735177039</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.76568090528318</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.28847761735298</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477764</v>
+        <v>4.729047720477779</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354601</v>
+        <v>0.0603708219635462</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781349</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209183</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216797988</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622092</v>
+        <v>28.37304427622158</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836608</v>
+        <v>93.77486694836711</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176167</v>
+        <v>153.610521517618</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518788</v>
+        <v>202.9106335187894</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095298</v>
+        <v>210.8543522095312</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099612</v>
+        <v>185.6338248099625</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.5846788678519</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288262</v>
+        <v>44.14760702288348</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272301</v>
+        <v>101.2260048487974</v>
       </c>
       <c r="L3" t="n">
-        <v>193.6258426857374</v>
+        <v>148.0935919490983</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743291</v>
+        <v>263.382814765182</v>
       </c>
       <c r="N3" t="n">
-        <v>263.3828147651795</v>
+        <v>212.0162936848989</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021674</v>
+        <v>171.5092504021683</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296645</v>
+        <v>118.1229442296653</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141485</v>
+        <v>28.53862929141539</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.1407623256217</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308544</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979568</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289084</v>
+        <v>180.1883115783588</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009236</v>
+        <v>6.51723026600952</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>553.2044093850081</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948016</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999246</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
